--- a/자유수강권/생명과학(수강).xlsx
+++ b/자유수강권/생명과학(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="139">
   <si>
     <t>주야</t>
   </si>
@@ -325,6 +325,9 @@
     <t>이태건</t>
   </si>
   <si>
+    <t>최예소</t>
+  </si>
+  <si>
     <t>성진아</t>
   </si>
   <si>
@@ -376,9 +379,15 @@
     <t>신현준</t>
   </si>
   <si>
+    <t>이나예</t>
+  </si>
+  <si>
     <t>최재원</t>
   </si>
   <si>
+    <t>홍나경</t>
+  </si>
+  <si>
     <t>고도영</t>
   </si>
   <si>
@@ -389,6 +398,9 @@
   </si>
   <si>
     <t>김은우</t>
+  </si>
+  <si>
+    <t>심예인</t>
   </si>
   <si>
     <t>정서헌</t>
@@ -787,7 +799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2392,10 +2404,10 @@
         <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>103</v>
@@ -2415,16 +2427,16 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>13</v>
@@ -2441,13 +2453,13 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>106</v>
@@ -2467,13 +2479,13 @@
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>107</v>
@@ -2493,13 +2505,13 @@
         <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>108</v>
@@ -2519,13 +2531,13 @@
         <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>109</v>
@@ -2545,13 +2557,13 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>110</v>
@@ -2571,16 +2583,16 @@
         <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>13</v>
@@ -2597,16 +2609,16 @@
         <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>13</v>
@@ -2623,13 +2635,13 @@
         <v>8</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>112</v>
@@ -2649,13 +2661,13 @@
         <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>113</v>
@@ -2675,13 +2687,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>114</v>
@@ -2701,16 +2713,16 @@
         <v>8</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>13</v>
@@ -2727,16 +2739,16 @@
         <v>8</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>13</v>
@@ -2753,13 +2765,13 @@
         <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>117</v>
@@ -2779,13 +2791,13 @@
         <v>8</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>118</v>
@@ -2805,13 +2817,13 @@
         <v>8</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>119</v>
@@ -2831,13 +2843,13 @@
         <v>8</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>120</v>
@@ -2857,13 +2869,13 @@
         <v>8</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>121</v>
@@ -2883,13 +2895,13 @@
         <v>8</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>122</v>
@@ -2909,13 +2921,13 @@
         <v>8</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>123</v>
@@ -2935,10 +2947,10 @@
         <v>8</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>67</v>
@@ -2961,13 +2973,13 @@
         <v>8</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>125</v>
@@ -2987,13 +2999,13 @@
         <v>8</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>126</v>
@@ -3013,13 +3025,13 @@
         <v>8</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>127</v>
@@ -3039,16 +3051,16 @@
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>13</v>
@@ -3065,16 +3077,16 @@
         <v>8</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>13</v>
@@ -3091,16 +3103,16 @@
         <v>8</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>13</v>
@@ -3117,16 +3129,16 @@
         <v>8</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>13</v>
@@ -3143,24 +3155,128 @@
         <v>8</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="13.5">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="13.5">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="13.5">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="13.5">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="1" t="s">
+      <c r="E95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>13</v>
       </c>
     </row>
